--- a/eInvoicing.Web/Content/uploads/E-Invoice Dashboard Template V1.xlsx
+++ b/eInvoicing.Web/Content/uploads/E-Invoice Dashboard Template V1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AE28E9-BC5F-46BE-BCF3-B8D2305293E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D718E8D5-C87F-4150-B94C-EE4A78505F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="117">
   <si>
     <t>DocumentType</t>
   </si>
@@ -384,6 +384,9 @@
     <t>Attaka</t>
   </si>
   <si>
+    <t>Maddi</t>
+  </si>
+  <si>
     <t>Free Zone area</t>
   </si>
   <si>
@@ -405,18 +408,33 @@
     <t>Fuel reconcillation Q3 MMC 284</t>
   </si>
   <si>
+    <t>BUR/PRJ/028/2017-02</t>
+  </si>
+  <si>
+    <t>WDDM Phase IXB Deveplment project -Subsea Facilities EPIC-Installation contract</t>
+  </si>
+  <si>
     <t>Burullus Gas Company S.A.E</t>
   </si>
   <si>
+    <t>INST-MC-002</t>
+  </si>
+  <si>
+    <t>Milestone completions certificate INST-MC-002</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>AF-0043-3856-001</t>
+  </si>
+  <si>
     <t>EG-347383874-02</t>
   </si>
   <si>
     <t>EG-347383874-03</t>
   </si>
   <si>
-    <t>EG-347383874-04</t>
-  </si>
-  <si>
     <t>T1</t>
   </si>
   <si>
@@ -427,6 +445,9 @@
   </si>
   <si>
     <t>Road210 Digal</t>
+  </si>
+  <si>
+    <t>0472</t>
   </si>
 </sst>
 </file>
@@ -508,7 +529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -597,6 +618,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -614,7 +672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -656,6 +714,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -664,6 +725,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -715,13 +779,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2848,6 +2930,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2991,8 +3074,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{753B2391-644E-EE4C-AE61-2A9AAA63C006}" name="Table3" displayName="Table3" ref="A1:BG2" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
-  <autoFilter ref="A1:BG2" xr:uid="{753B2391-644E-EE4C-AE61-2A9AAA63C006}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{753B2391-644E-EE4C-AE61-2A9AAA63C006}" name="Table3" displayName="Table3" ref="A1:BG3" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
+  <autoFilter ref="A1:BG3" xr:uid="{753B2391-644E-EE4C-AE61-2A9AAA63C006}"/>
   <tableColumns count="59">
     <tableColumn id="1" xr3:uid="{EE900CCF-1FE8-8141-A428-ECB8FE2B62A8}" name="DocumentType" dataDxfId="88"/>
     <tableColumn id="2" xr3:uid="{AAB3E768-552B-F44F-8F94-C6F057824DA9}" name="DocumentTypeVersion" dataDxfId="87"/>
@@ -3059,8 +3142,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F83E2D2-3481-7740-AE68-0760331ECCA6}" name="Table2" displayName="Table2" ref="A1:T4" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A1:T4" xr:uid="{5F83E2D2-3481-7740-AE68-0760331ECCA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F83E2D2-3481-7740-AE68-0760331ECCA6}" name="Table2" displayName="Table2" ref="A1:T5" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:T5" xr:uid="{5F83E2D2-3481-7740-AE68-0760331ECCA6}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{12BA5C98-D781-A745-AE24-CA7E02460CAF}" name="InternalInvoiceLineId" dataDxfId="27"/>
     <tableColumn id="2" xr3:uid="{00FD23D7-0F25-EE4A-B5AD-CCDD8033B67D}" name="ItemType" dataDxfId="26"/>
@@ -3088,8 +3171,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1872E9A6-60FE-614B-BD87-64B668D9DB3A}" name="Table1" displayName="Table1" ref="A1:F4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F4" xr:uid="{1872E9A6-60FE-614B-BD87-64B668D9DB3A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1872E9A6-60FE-614B-BD87-64B668D9DB3A}" name="Table1" displayName="Table1" ref="A1:F5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F5" xr:uid="{1872E9A6-60FE-614B-BD87-64B668D9DB3A}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B3206C84-5B07-0347-B6ED-322502D239A6}" name="InternalId" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{B92DAD79-6BA8-C541-B068-6A46B814F3EE}" name="TaxType" dataDxfId="4"/>
@@ -3423,10 +3506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG7"/>
+  <dimension ref="A1:BG8"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3434,7 +3517,7 @@
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="22" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="94.140625" bestFit="1" customWidth="1"/>
@@ -3455,20 +3538,20 @@
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21" style="20" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21" style="22" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="19" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.28515625" style="22" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
@@ -3484,11 +3567,11 @@
     <col min="52" max="52" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="12" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="25" style="20" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="25" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3501,7 +3584,7 @@
       <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -3564,7 +3647,7 @@
       <c r="X1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Y1" s="20" t="s">
         <v>23</v>
       </c>
       <c r="Z1" s="9" t="s">
@@ -3582,7 +3665,7 @@
       <c r="AD1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AE1" s="20" t="s">
         <v>29</v>
       </c>
       <c r="AF1" s="9" t="s">
@@ -3600,10 +3683,10 @@
       <c r="AJ1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="18" t="s">
+      <c r="AK1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="18" t="s">
+      <c r="AL1" s="20" t="s">
         <v>35</v>
       </c>
       <c r="AM1" s="9" t="s">
@@ -3654,10 +3737,10 @@
       <c r="BB1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" s="18" t="s">
+      <c r="BC1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" s="18" t="s">
+      <c r="BD1" s="20" t="s">
         <v>53</v>
       </c>
       <c r="BE1" s="6" t="s">
@@ -3666,7 +3749,7 @@
       <c r="BF1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" s="18" t="s">
+      <c r="BG1" s="20" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3677,11 +3760,11 @@
       <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="36">
-        <v>44469</v>
-      </c>
-      <c r="D2" s="19">
-        <v>472</v>
+      <c r="C2" s="42">
+        <v>44571</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>116</v>
       </c>
       <c r="E2" s="12">
         <v>20001199</v>
@@ -3689,7 +3772,7 @@
       <c r="F2" s="2">
         <v>4300595436</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="18" t="s">
         <v>91</v>
       </c>
       <c r="H2" s="2"/>
@@ -3701,7 +3784,7 @@
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="16">
         <v>22150448</v>
       </c>
       <c r="N2" s="14">
@@ -3735,21 +3818,21 @@
         <v>94</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>108</v>
+        <v>96</v>
+      </c>
+      <c r="Y2" s="21" t="s">
+        <v>114</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="19">
+      <c r="AE2" s="21">
         <v>200196367</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>58</v>
@@ -3761,12 +3844,12 @@
         <v>60</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK2" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL2" s="19">
+        <v>97</v>
+      </c>
+      <c r="AK2" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL2" s="21">
         <v>8</v>
       </c>
       <c r="AM2" s="2"/>
@@ -3785,27 +3868,156 @@
       <c r="AZ2" s="2"/>
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
-      <c r="BC2" s="19">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="19">
+      <c r="BC2" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="21">
         <v>0</v>
       </c>
       <c r="BE2" s="2" t="s">
         <v>90</v>
       </c>
       <c r="BF2" s="2"/>
-      <c r="BG2" s="19"/>
+      <c r="BG2" s="21"/>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="K7" s="37"/>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="42">
+        <v>44572</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="7">
+        <v>2262900</v>
+      </c>
+      <c r="L3" s="14">
+        <v>0</v>
+      </c>
+      <c r="M3" s="15">
+        <f>+Table3[[#This Row],[TotalSalesAmount]]</f>
+        <v>2262900</v>
+      </c>
+      <c r="N3" s="14">
+        <v>0</v>
+      </c>
+      <c r="O3" s="14">
+        <v>0</v>
+      </c>
+      <c r="P3" s="13">
+        <f>+Table3[[#This Row],[NetAmount]]</f>
+        <v>2262900</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>347383874</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="21">
+        <v>200196367</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK3" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL3" s="21">
+        <v>8</v>
+      </c>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="21">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="21"/>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="K8" s="45"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2" xr:uid="{1A81C933-1FDA-4352-B4A0-F75E52F8078D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2:BE3" xr:uid="{1A81C933-1FDA-4352-B4A0-F75E52F8078D}">
       <formula1>"Completed, Updated"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{336D3814-AE4E-4DDB-AEAA-2D860278B0AA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{336D3814-AE4E-4DDB-AEAA-2D860278B0AA}">
       <formula1>"0.9, 1.0"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3820,34 +4032,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="85.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24" style="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="16"/>
+    <col min="1" max="1" width="23" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="85.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3857,7 +4069,7 @@
       <c r="B1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="23" t="s">
         <v>63</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -3908,7 +4120,7 @@
       <c r="S1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="23" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3919,11 +4131,11 @@
       <c r="B2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>103</v>
+      <c r="C2" s="25" t="s">
+        <v>110</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -3950,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>82</v>
@@ -3970,7 +4182,7 @@
       <c r="S2" s="8">
         <v>0</v>
       </c>
-      <c r="T2" s="24">
+      <c r="T2" s="26">
         <v>20001199</v>
       </c>
     </row>
@@ -3981,11 +4193,11 @@
       <c r="B3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>104</v>
+      <c r="C3" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -4012,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>82</v>
@@ -4032,28 +4244,28 @@
       <c r="S3" s="8">
         <v>0</v>
       </c>
-      <c r="T3" s="24">
+      <c r="T3" s="26">
         <v>20001199</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
-        <v>97</v>
+      <c r="A4" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>105</v>
+      <c r="C4" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G4" s="7">
         <v>21872400</v>
@@ -4074,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>82</v>
@@ -4094,8 +4306,70 @@
       <c r="S4" s="8">
         <v>0</v>
       </c>
-      <c r="T4" s="24">
+      <c r="T4" s="26">
         <v>20001199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2262900</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2262900</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2262900</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O5" s="43">
+        <v>2262900</v>
+      </c>
+      <c r="P5" s="44">
+        <v>120688</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>18.75</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4111,19 +4385,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4131,7 +4405,7 @@
       <c r="A1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>84</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -4140,7 +4414,7 @@
       <c r="D1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="23" t="s">
         <v>87</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -4148,31 +4422,31 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26">
+      <c r="A2" s="28">
         <v>140</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="28">
-        <v>0</v>
-      </c>
-      <c r="D2" s="28">
-        <v>0</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="29">
+      <c r="B2" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="30">
+        <v>0</v>
+      </c>
+      <c r="D2" s="30">
+        <v>0</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="31">
         <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30">
+      <c r="A3" s="32">
         <v>152</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>106</v>
+      <c r="B3" s="27" t="s">
+        <v>112</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -4180,31 +4454,51 @@
       <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="31">
+      <c r="E3" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="33">
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="36">
+        <v>0</v>
+      </c>
+      <c r="D4" s="36">
+        <v>0</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="34">
-        <v>0</v>
-      </c>
-      <c r="D4" s="34">
-        <v>0</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>97</v>
+      <c r="B5" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="40">
+        <v>0</v>
+      </c>
+      <c r="D5" s="40">
+        <v>0</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
